--- a/src/views/FileMau/FileImportVanBang.xlsx
+++ b/src/views/FileMau/FileImportVanBang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLVB_22102023_FE\fe-_qlvb\src\views\FileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>054201024002</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>6,6</t>
   </si>
 </sst>
 </file>
@@ -793,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1090,7 @@
         <v>67</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>82</v>
@@ -1097,7 +1109,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="X3" s="13" t="s">
         <v>84</v>
@@ -1156,7 +1168,7 @@
         <v>67</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>82</v>
@@ -1180,8 +1192,8 @@
       <c r="X4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="13">
-        <v>6</v>
+      <c r="Y4" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>

--- a/src/views/FileMau/FileImportVanBang.xlsx
+++ b/src/views/FileMau/FileImportVanBang.xlsx
@@ -302,10 +302,10 @@
     <t>7,9</t>
   </si>
   <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>6,6</t>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>6.6</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/views/FileMau/FileImportVanBang.xlsx
+++ b/src/views/FileMau/FileImportVanBang.xlsx
@@ -296,16 +296,16 @@
     <t>054201024002</t>
   </si>
   <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
     <t>8.9</t>
   </si>
   <si>
     <t>6.6</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>67</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>82</v>
@@ -1109,7 +1109,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X3" s="13" t="s">
         <v>84</v>
@@ -1168,7 +1168,7 @@
         <v>67</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>82</v>
@@ -1193,7 +1193,7 @@
         <v>85</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>

--- a/src/views/FileMau/FileImportVanBang.xlsx
+++ b/src/views/FileMau/FileImportVanBang.xlsx
@@ -53,9 +53,6 @@
     <t>SoVaoSoCapBang</t>
   </si>
   <si>
-    <t>HoiDongThi</t>
-  </si>
-  <si>
     <t>Lop</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>7.9</t>
+  </si>
+  <si>
+    <t>HoiDong</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>7</v>
@@ -873,180 +873,180 @@
         <v>8</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1054,65 +1054,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="R3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="13">
         <v>6</v>
@@ -1129,71 +1129,71 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="M4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="P4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
